--- a/result.xlsx
+++ b/result.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>request</t>
+  </si>
+  <si>
+    <t>https://www.wosign.com/index.htm</t>
   </si>
   <si>
     <t>https://blairstorage.blob.core.chinacloudapi.cn/transfer/azurelogo.png</t>
@@ -85,10 +88,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -98,13 +101,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -138,15 +134,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="0"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="0"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="0"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -154,9 +152,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -166,13 +162,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="0"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,26 +195,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,13 +561,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
     <col min="2" max="2" width="30.125" customWidth="1"/>
@@ -574,115 +575,126 @@
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" customHeight="1" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="30.75" customHeight="1" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" ht="31.5" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="4" ht="31.5" customHeight="1" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
+    <row r="5" ht="39" customHeight="1" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="6"/>
     </row>
-    <row r="5" ht="36" customHeight="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
+    <row r="7" ht="34" customHeight="1" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6"/>
     </row>
-    <row r="6" ht="34" customHeight="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="58" customHeight="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="8" ht="58" customHeight="1" spans="1:5">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://blairstorage.blob.core.chinacloudapi.cn/transfer/azurelogo.png" tooltip="https://blairstorage.blob.core.chinacloudapi.cn/transfer/azurelogo.png"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://blairstorage.blob.core.chinacloudapi.cn/transfer/azurelogo.png" tooltip="https://blairstorage.blob.core.chinacloudapi.cn/transfer/azurelogo.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
